--- a/scripts/novelty_algos_semdis_corrs.xlsx
+++ b/scripts/novelty_algos_semdis_corrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0A2599-5534-4ADC-8CED-F448DDAD65EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B67B08F-D4E1-4B88-9471-9A7A9DF7E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="2010" windowWidth="21495" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -1390,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -1775,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
@@ -2160,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
